--- a/biology/Botanique/Rodolphe_Spichiger/Rodolphe_Spichiger.xlsx
+++ b/biology/Botanique/Rodolphe_Spichiger/Rodolphe_Spichiger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rodolphe Edouard Spichiger, né le 12 mars 1946 à Genève, est un botaniste suisse, professeur associé au Département de biologie végétale de l'université de Genève.
 </t>
@@ -511,9 +523,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spécialiste en botanique intertropicale, il fut professeur associé à l'Université de Genève et directeur du Jardin botanique de Genève entre 1986 et 2005, année où il fut relayé à ce poste par Pierre-André Loizeau[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spécialiste en botanique intertropicale, il fut professeur associé à l'Université de Genève et directeur du Jardin botanique de Genève entre 1986 et 2005, année où il fut relayé à ce poste par Pierre-André Loizeau.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Citations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« La plante est un être en soi avant d'être un phénomène de laboratoire[2]. »
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« La plante est un être en soi avant d'être un phénomène de laboratoire. »
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1995, le Jardin botanique du Missouri lui a décerné le prix Greensfelder pour ses travaux dans le domaine de la conservation et de la protection de l'environnement[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1995, le Jardin botanique du Missouri lui a décerné le prix Greensfelder pour ses travaux dans le domaine de la conservation et de la protection de l'environnement.
 </t>
         </is>
       </c>
@@ -606,10 +624,49 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ouvrages
-Rodolphe-Edouard Spichiger, Vincent V.. Savolainen, Murielle Figeat-Hug et Daniel Jeanmonod, Botanique systématique des plantes à fleurs : une approche phylogénétique nouvelle des angiospermes des régions tempérées et tropicales, PPUR presses polytechniques, 2002, 413 p. (ISBN 978-2-88074-502-8, lire en ligne)
-Articles
-Cyrille Chatelain, Laurent Aké Assi, Laurent Gautier et Rodolphe Spichiger, « Atlas de distribution des plantes de Côte d'Ivoire », Boissiera, vol. 64,‎ 2011, p. 1-400 (DOI 10.13140/RG.2.1.2491.5925)
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Rodolphe-Edouard Spichiger, Vincent V.. Savolainen, Murielle Figeat-Hug et Daniel Jeanmonod, Botanique systématique des plantes à fleurs : une approche phylogénétique nouvelle des angiospermes des régions tempérées et tropicales, PPUR presses polytechniques, 2002, 413 p. (ISBN 978-2-88074-502-8, lire en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rodolphe_Spichiger</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rodolphe_Spichiger</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cyrille Chatelain, Laurent Aké Assi, Laurent Gautier et Rodolphe Spichiger, « Atlas de distribution des plantes de Côte d'Ivoire », Boissiera, vol. 64,‎ 2011, p. 1-400 (DOI 10.13140/RG.2.1.2491.5925)
 Hans ter Steege, Nigel C. A. Pitman, Oliver L. Phillips, Jerome Chave, Daniel Sabatier, Alvaro Duque, Jean-François Molino, Marie-Françoise Prévost, Rodolphe Spichiger, Hernán Castellanos, Patricio von Hildebrand et Rodolfo Vásquez, « Continental-scale patterns of canopy tree composition and function across Amazonia », Nature, vol. 443, no 7110,‎ 2006, p. 444–447 (ISSN 0028-0836, DOI 10.1038/nature05134)
 Rolf Borchert, Susanne S. Renner, Zoraida Calle, Diego Navarrete, Alan Tye, Laurent Gautier, Rodolphe Spichiger et Patricio von Hildebrand, « Photoperiodic induction of synchronous flowering near the Equator », Nature, vol. 433, no 7026,‎ 2005, p. 627–629 (ISSN 0028-0836, DOI 10.1038/nature03259)
 Rodolphe Spichiger, Clément Calenge et Bastian Bise, « Geographical zonation in the Neotropics of tree species characteristic of the Paraguay-Paraná Basin », Journal of Biogeography, vol. 31, no 9,‎ 2004, p. 1489–1501 (ISSN 0305-0270, DOI 10.1111/j.1365-2699.2004.01071.x)
